--- a/EsquemaEletrico/BOM_ProjetoFinalSEMB.xlsx
+++ b/EsquemaEletrico/BOM_ProjetoFinalSEMB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kicad-workspace\ProjetoFinalSEMB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586CDADE-4E9E-4574-BD03-9F3E1AD28631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88185B06-6EAC-4224-8756-CBBCA5857F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F890F1E-57EA-4009-83A0-DF180BAA3A7E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="134">
   <si>
     <t>Item</t>
   </si>
@@ -92,9 +92,6 @@
     <t>R10</t>
   </si>
   <si>
-    <t>R11, R12, R13, R14, R15, R23, R24</t>
-  </si>
-  <si>
     <t>R16</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>Footprints:12BH611GR</t>
   </si>
   <si>
-    <t>OPA4991MDYYREP</t>
-  </si>
-  <si>
     <t>BZX58550-C6V8-QX</t>
   </si>
   <si>
@@ -152,9 +146,6 @@
     <t>Display OLED</t>
   </si>
   <si>
-    <t xml:space="preserve">Amplificador Operacional </t>
-  </si>
-  <si>
     <t>Descrição</t>
   </si>
   <si>
@@ -191,9 +182,6 @@
     <t>LM317MDT-TR</t>
   </si>
   <si>
-    <t>Microcintrolador</t>
-  </si>
-  <si>
     <t>Package_DFN_QFN:QFN-48-1EP_7x7mm_P0.5mm_EP5.6x5.6mm</t>
   </si>
   <si>
@@ -218,18 +206,9 @@
     <t>Botões para Boot e Reset</t>
   </si>
   <si>
-    <t>667-ERJ-H2RD1001X</t>
-  </si>
-  <si>
-    <t>667-ERA-8VRB1002V</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
-    <t>https://br.mouser.com/ProductDetail/Panasonic/ERJ-H2RD1001X?qs=sGAEpiMZZMtlubZbdhIBIGXWvNSLmQjeEgzxEC0XY80%3D</t>
-  </si>
-  <si>
     <t>https://br.mouser.com/ProductDetail/Panasonic/ERA-8VRB1002V?qs=sGAEpiMZZMtlubZbdhIBINZaoL9yqB51I6UW8FwQKMs%3D</t>
   </si>
   <si>
@@ -251,9 +230,6 @@
     <t>https://br.mouser.com/ProductDetail/Nexperia/BZX58550-C6V8-QX?qs=7D1LtPJG0i2dEkfKBmD%2FSA%3D%3D</t>
   </si>
   <si>
-    <t>https://br.mouser.com/ProductDetail/Texas-Instruments/OPA4991MDYYREP?qs=IPgv5n7u5QYEXhSvfh2heg%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/SSD1306/s?k=SSD1306</t>
   </si>
   <si>
@@ -281,87 +257,18 @@
     <t>Resistores de 100k (0.1%)</t>
   </si>
   <si>
-    <t>Resistor de 300R (0.5%)</t>
-  </si>
-  <si>
-    <t>Resistor de 180R (0.5%)</t>
-  </si>
-  <si>
-    <t>Resistor de 240R (0.5%)</t>
-  </si>
-  <si>
-    <t>Resistores de 4.7k (0.5%)</t>
-  </si>
-  <si>
-    <t>Resistor de 390R (0.5%)</t>
-  </si>
-  <si>
-    <t>Resistores de 22R (0.5%)</t>
-  </si>
-  <si>
-    <t>Resistor de 62R (0.5%)</t>
-  </si>
-  <si>
-    <t>Resistores de 1K (0.5%)</t>
-  </si>
-  <si>
-    <t>667-ERA-8VRB1003V</t>
-  </si>
-  <si>
     <t>Footprints:C2220_FT</t>
   </si>
   <si>
-    <t>667-ERJ-H2RD62R0X</t>
-  </si>
-  <si>
-    <t>667-ERJ-H2RD3000X</t>
-  </si>
-  <si>
-    <t>667-ERJ-H2RD1800X</t>
-  </si>
-  <si>
     <t>C1, C2, C7,C10</t>
   </si>
   <si>
-    <t>667-ERJ-H2RD4701X</t>
-  </si>
-  <si>
-    <t>667-ERJ-H2RD2400X</t>
-  </si>
-  <si>
-    <t>667-ERJ-H2RD3900X</t>
-  </si>
-  <si>
-    <t>667-ERJ-H2RD22R0X</t>
-  </si>
-  <si>
     <t>C9, C13,C11</t>
   </si>
   <si>
     <t>https://br.mouser.com/ProductDetail/Panasonic/ERA-8VRB1003V?qs=By6Nw2ByBD3GbaEFFbsd4A%3D%3D</t>
   </si>
   <si>
-    <t>https://br.mouser.com/ProductDetail/Panasonic/ERJ-H2RD62R0X?qs=eP2BKZSCXI7%2FBDWnXiWFmg%3D%3D</t>
-  </si>
-  <si>
-    <t>https://br.mouser.com/ProductDetail/Panasonic/ERJ-H2RD3000X?qs=eP2BKZSCXI5%252Bk0iPTynXxA%3D%3D</t>
-  </si>
-  <si>
-    <t>https://br.mouser.com/ProductDetail/Panasonic/ERJ-H2RD1800X?qs=eP2BKZSCXI4pq1Csy9gFwQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://br.mouser.com/ProductDetail/Panasonic/ERJ-H2RD2400X?qs=eP2BKZSCXI6wQ256SKssew%3D%3D</t>
-  </si>
-  <si>
-    <t>https://br.mouser.com/ProductDetail/Panasonic/ERJ-H2RD4701X?qs=eP2BKZSCXI4GiWsLfxSn%2FA%3D%3D</t>
-  </si>
-  <si>
-    <t>https://br.mouser.com/ProductDetail/Panasonic/ERJ-H2RD3900X?qs=eP2BKZSCXI5Ac8csp%2FXiUw%3D%3D</t>
-  </si>
-  <si>
-    <t>https://br.mouser.com/ProductDetail/Panasonic/ERJ-H2RD22R0X?qs=eP2BKZSCXI5Qweszh86EcQ%3D%3D</t>
-  </si>
-  <si>
     <t>SamacSys_Parts:capacitor10u</t>
   </si>
   <si>
@@ -371,9 +278,6 @@
     <t>12106G107ZAT2A</t>
   </si>
   <si>
-    <t>649-1012938090301BLF</t>
-  </si>
-  <si>
     <t>https://br.mouser.com/ProductDetail/Amphenol-FCI/10129380-903001BLF?qs=0lQeLiL1qyY7ch20dCKSWg%3D%3D</t>
   </si>
   <si>
@@ -383,15 +287,9 @@
     <t>https://br.mouser.com/ProductDetail/CK/PTS526-SM08-SMTR2-LFS?qs=UXgszm6BlbFgRZzlfGAMFg%3D%3D&amp;mgh=1&amp;gclid=Cj0KCQjwmtGjBhDhARIsAEqfDEcdgGHV4h-fBfaeqcA8Ruqufca98iAGMfZ5LvB8ecMIlOSI_pLHlm4aAl00EALw_wcB</t>
   </si>
   <si>
-    <t>611-PTS526SM08SMTR2L</t>
-  </si>
-  <si>
     <t>Footprints:C1206</t>
   </si>
   <si>
-    <t>Footprints:SOP50P326X110-14N</t>
-  </si>
-  <si>
     <t>Footprints:diode</t>
   </si>
   <si>
@@ -407,9 +305,6 @@
     <t>Footprints:10129380903001BLF</t>
   </si>
   <si>
-    <t>Footprints:H2C_H2R</t>
-  </si>
-  <si>
     <t>Preço Unitario($)</t>
   </si>
   <si>
@@ -423,6 +318,126 @@
   </si>
   <si>
     <t>Footprints:ERA8KEB1004V</t>
+  </si>
+  <si>
+    <t>Resistor de 62R (1%)</t>
+  </si>
+  <si>
+    <t>Resistores de 1K (1%)</t>
+  </si>
+  <si>
+    <t>Resistor de 300R (1%)</t>
+  </si>
+  <si>
+    <t>Resistor de 180R (1%)</t>
+  </si>
+  <si>
+    <t>Resistor de 240R (1%)</t>
+  </si>
+  <si>
+    <t>Resistores de 4.7k (1%)</t>
+  </si>
+  <si>
+    <t>Resistor de 390R (1%)</t>
+  </si>
+  <si>
+    <t>Resistores de 22R (1%)</t>
+  </si>
+  <si>
+    <t>ERJ-L12KF22MU</t>
+  </si>
+  <si>
+    <t>Footprints:ERJL12__1812_</t>
+  </si>
+  <si>
+    <t>ERJ-1TNF62R0U</t>
+  </si>
+  <si>
+    <t>ERJ-1TNF1001U</t>
+  </si>
+  <si>
+    <t>ERJ-1TNF3000U</t>
+  </si>
+  <si>
+    <t>ERJ-1TNF1800U</t>
+  </si>
+  <si>
+    <t>ERJ-1TNF2400U</t>
+  </si>
+  <si>
+    <t>ERJ-1TNF4701U</t>
+  </si>
+  <si>
+    <t>ERJ-1TNF3900U</t>
+  </si>
+  <si>
+    <t>Footprints:ERJ1T__2512_</t>
+  </si>
+  <si>
+    <t>Microcontrolador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI de Amplificadores Operacionais </t>
+  </si>
+  <si>
+    <t>Footprints:SOP65P640X120-14N</t>
+  </si>
+  <si>
+    <t>LM324BIPWR</t>
+  </si>
+  <si>
+    <t>https://br.mouser.com/ProductDetail/Texas-Instruments/LM324BIPWR?qs=T%252BzbugeAwjhi0EnhZqTiMg%3D%3D</t>
+  </si>
+  <si>
+    <t>PTS526SM08SMTR2L</t>
+  </si>
+  <si>
+    <t>1012938090301BLF</t>
+  </si>
+  <si>
+    <t>ERA-8VRB1002V</t>
+  </si>
+  <si>
+    <t>ERA-8VRB1003V</t>
+  </si>
+  <si>
+    <t>R11, R12, R13, R14, R15</t>
+  </si>
+  <si>
+    <t>R23, R24</t>
+  </si>
+  <si>
+    <t>Resistores de 2.2K (1%)</t>
+  </si>
+  <si>
+    <t>ERJ-1TNF2201U</t>
+  </si>
+  <si>
+    <t>https://br.mouser.com/ProductDetail/Panasonic/ERJ-1TNF2201U?qs=KH2o3k57USgTJm%252Brf0TwCA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://br.mouser.com/ProductDetail/Panasonic/ERJ-1TNF62R0U?qs=KH2o3k57USgH%2FqWe49afYg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://br.mouser.com/ProductDetail/Panasonic/ERJ-1TNF1001U?qs=KH2o3k57USgAxBX6SLbe%252Bg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://br.mouser.com/ProductDetail/Panasonic/ERJ-1TNF3000U?qs=KH2o3k57USiCiL0iPlOCIw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://br.mouser.com/ProductDetail/Panasonic/ERJ-1TNF1800U?qs=KH2o3k57USh5a4m7W6rgcA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://br.mouser.com/ProductDetail/Panasonic/ERJ-1TNF2400U?qs=KH2o3k57USgZp2v9tl6kYQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://br.mouser.com/ProductDetail/Panasonic/ERJ-1TNF4701U?qs=lpAV6hZbGAvW2ZD2e9jlOA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://br.mouser.com/ProductDetail/Panasonic/ERJ-1TNF3900U?qs=KH2o3k57UShkmhE3TV7Dlg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://br.mouser.com/ProductDetail/Panasonic/ERJ-L12KF22MU?qs=bHJq1HQHzUhfotZ%252Bc%252BKipQ%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -502,7 +517,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -528,13 +543,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -676,8 +690,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{536AAD9C-6552-411D-8BC4-364857582C7A}" name="Tabela2" displayName="Tabela2" ref="B2:K28" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="B2:K28" xr:uid="{536AAD9C-6552-411D-8BC4-364857582C7A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{536AAD9C-6552-411D-8BC4-364857582C7A}" name="Tabela2" displayName="Tabela2" ref="B2:K29" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="B2:K29" xr:uid="{536AAD9C-6552-411D-8BC4-364857582C7A}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{7AD6A22E-645C-4834-ACD4-6E29FAA58C06}" name="Item" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{600E5992-991D-4277-A577-41567C271B52}" name="Qty" dataDxfId="8"/>
@@ -993,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E4F0FA-C657-4849-99F1-33AB0FD7638F}">
-  <dimension ref="B2:K29"/>
+  <dimension ref="B2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,42 +1037,42 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2">
         <v>1.35</v>
@@ -1068,13 +1082,13 @@
         <v>1.35</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
@@ -1085,13 +1099,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2">
         <v>3.19</v>
@@ -1101,13 +1115,13 @@
         <v>12.76</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
@@ -1118,13 +1132,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2">
         <v>4.91</v>
@@ -1134,30 +1148,30 @@
         <v>9.82</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="2">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="G6" s="2">
         <v>1.17</v>
@@ -1167,13 +1181,13 @@
         <v>4.68</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
@@ -1184,13 +1198,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G7" s="2">
         <v>0.26</v>
@@ -1200,30 +1214,30 @@
         <v>0.78</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2">
         <v>0.38</v>
@@ -1233,30 +1247,30 @@
         <v>0.76</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2">
         <v>7.27</v>
@@ -1266,46 +1280,46 @@
         <v>7.27</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="K9" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="G10" s="2">
-        <v>10.1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="0"/>
-        <v>10.1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>71</v>
+        <v>92</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
@@ -1316,13 +1330,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G11" s="2">
         <v>0.15</v>
@@ -1332,30 +1346,30 @@
         <v>0.3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="G12" s="2">
         <v>0.93</v>
@@ -1365,30 +1379,30 @@
         <v>0.93</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G13" s="2">
         <v>1.05</v>
@@ -1398,30 +1412,30 @@
         <v>1.05</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>12</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G14" s="2">
         <v>7.48</v>
@@ -1431,30 +1445,30 @@
         <v>7.48</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>13</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G15" s="2">
         <v>0.52</v>
@@ -1464,46 +1478,46 @@
         <v>0.52</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>14</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G16" s="2">
-        <v>0.37</v>
+        <v>1.18</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="0"/>
-        <v>0.37</v>
+        <v>1.18</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
@@ -1514,46 +1528,46 @@
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="G17" s="2">
-        <v>0.37</v>
+        <v>0.7</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="0"/>
-        <v>1.1099999999999999</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>16</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="2">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="G18" s="2">
         <v>1.32</v>
@@ -1563,96 +1577,96 @@
         <v>2.64</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>17</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G19" s="2">
-        <v>0.37</v>
+        <v>0.52</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="0"/>
-        <v>0.37</v>
+        <v>0.52</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>102</v>
+        <v>92</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>18</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="2">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="G20" s="2">
-        <v>0.37</v>
+        <v>1.18</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" ref="H20:H28" si="1">G20*C20</f>
-        <v>0.37</v>
+        <f t="shared" ref="H20:H29" si="1">G20*C20</f>
+        <v>1.18</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>19</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="G21" s="2">
         <v>1.32</v>
@@ -1662,258 +1676,290 @@
         <v>1.32</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>20</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="G22" s="2">
-        <v>0.37</v>
+        <v>1.18</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="1"/>
-        <v>0.37</v>
+        <v>1.18</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>104</v>
+        <v>92</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>21</v>
       </c>
-      <c r="C23" s="9">
-        <v>7</v>
+      <c r="C23" s="2">
+        <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G23" s="2">
-        <v>0.37</v>
+        <v>0.7</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="1"/>
-        <v>2.59</v>
+        <v>3.5</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>105</v>
+        <v>92</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>22</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G24" s="2">
-        <v>0.37</v>
+        <v>0.7</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="1"/>
-        <v>0.37</v>
+        <v>0.7</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>106</v>
+        <v>92</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>23</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="2">
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G25" s="2">
-        <v>0.37</v>
+        <v>0.75</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="1"/>
-        <v>2.2199999999999998</v>
+        <v>4.5</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>107</v>
+        <v>92</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>24</v>
       </c>
-      <c r="C26" s="9">
-        <v>1</v>
+      <c r="C26" s="2">
+        <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="H26" s="2">
+        <f>G26*C26</f>
+        <v>2.34</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G26" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="1"/>
-        <v>0.12</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>25</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="2">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="G27" s="2">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>26</v>
       </c>
-      <c r="C28" s="9">
-        <v>2</v>
+      <c r="C28" s="2">
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="G28" s="2">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
         <v>0.26</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D29" s="11"/>
-      <c r="F29" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G29" s="8">
+      <c r="I29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="8">
         <f>SUM(Tabela2[Preço Unitario($)])</f>
-        <v>44.759999999999984</v>
-      </c>
-      <c r="H29" s="8">
+        <v>40.330000000000005</v>
+      </c>
+      <c r="H30" s="8">
         <f>SUM(Tabela2[Preço total($)])</f>
-        <v>70.060000000000016</v>
+        <v>69.940000000000012</v>
       </c>
     </row>
   </sheetData>
@@ -1930,14 +1976,15 @@
     <hyperlink ref="K24" r:id="rId10" xr:uid="{A5D01A83-9221-47E3-B740-FC1EC7A82B20}"/>
     <hyperlink ref="K25" r:id="rId11" xr:uid="{827DDCBC-3554-4544-85A1-11CC1BEDEC39}"/>
     <hyperlink ref="K11" r:id="rId12" xr:uid="{8F9F4B78-D860-4E3D-BDE6-004B81518636}"/>
-    <hyperlink ref="K27" r:id="rId13" xr:uid="{08C8640B-0E43-452F-9D35-BB03AD4B6519}"/>
-    <hyperlink ref="K26" r:id="rId14" xr:uid="{85593FF3-104A-4C2F-A98C-AA3797AB1D98}"/>
-    <hyperlink ref="K28" r:id="rId15" xr:uid="{3882DE47-E325-4A72-B0AB-6AB6E92E4D5E}"/>
+    <hyperlink ref="K28" r:id="rId13" xr:uid="{08C8640B-0E43-452F-9D35-BB03AD4B6519}"/>
+    <hyperlink ref="K27" r:id="rId14" xr:uid="{85593FF3-104A-4C2F-A98C-AA3797AB1D98}"/>
+    <hyperlink ref="K29" r:id="rId15" xr:uid="{3882DE47-E325-4A72-B0AB-6AB6E92E4D5E}"/>
+    <hyperlink ref="K10" r:id="rId16" xr:uid="{FF83B702-25AE-4C4F-A734-EB68A6CB4673}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>